--- a/testData/LoginTestData.xlsx
+++ b/testData/LoginTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\eclipse-workspace\Selenium_Project\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633D6120-3791-4843-9FEC-133FF34BFEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DAEE5E-2A88-4FE0-82AD-57DD5339EB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D72E5B5C-3F29-445F-A3BC-34280CE09F22}"/>
   </bookViews>
@@ -921,15 +921,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
